--- a/CSharpPartOne/06.Loops/SpiralMatrix.xlsx
+++ b/CSharpPartOne/06.Loops/SpiralMatrix.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -96,6 +96,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,7 +401,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
@@ -575,213 +578,237 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="5">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2</v>
-      </c>
-      <c r="J11" s="5">
-        <v>3</v>
-      </c>
-      <c r="K11" s="5">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5"/>
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="H12" s="3">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3"/>
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16" s="5">
-        <v>3</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
